--- a/Expenses.xlsx
+++ b/Expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaosimoes/Desktop/Project/Expenses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EF9A96-9495-BF47-81EF-9D4328EBA113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7A2057-4E57-D44E-9958-374C6F04D6A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{F611E005-DCD2-7C43-A5B3-27903F630F81}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -50,40 +50,52 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Jantar</t>
-  </si>
-  <si>
-    <t>Mariana</t>
-  </si>
-  <si>
-    <t>Bolo</t>
-  </si>
-  <si>
-    <t>João</t>
-  </si>
-  <si>
-    <t>Coisas</t>
-  </si>
-  <si>
-    <t>Madalena</t>
-  </si>
-  <si>
-    <t>Anel</t>
-  </si>
-  <si>
-    <t>Afonso</t>
-  </si>
-  <si>
-    <t>Mãe</t>
-  </si>
-  <si>
-    <t>Mala</t>
-  </si>
-  <si>
-    <t>Pai</t>
-  </si>
-  <si>
-    <t>Martelo</t>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Groceries</t>
+  </si>
+  <si>
+    <t>Shopping</t>
+  </si>
+  <si>
+    <t>Clothing</t>
+  </si>
+  <si>
+    <t>Entertainment</t>
+  </si>
+  <si>
+    <t>Movie Tickets</t>
+  </si>
+  <si>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>Electricity Bill</t>
+  </si>
+  <si>
+    <t>Travel</t>
+  </si>
+  <si>
+    <t>Flight Tickets</t>
+  </si>
+  <si>
+    <t>Restaurant</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>Doctor's Visit</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>Concert Tickets</t>
+  </si>
+  <si>
+    <t>Hotel Stay</t>
   </si>
 </sst>
 </file>
@@ -93,7 +105,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -103,6 +115,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -130,10 +149,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -449,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A767CD-E1F2-1C45-8987-95F852EDB08B}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -477,13 +497,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44988</v>
+        <v>44972</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2">
-        <v>40</v>
+        <v>45.67</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -491,13 +511,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44124</v>
+        <v>45036</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2">
-        <v>40</v>
+        <v>124.5</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -505,13 +525,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>36223</v>
+        <v>44990</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="2">
-        <v>20</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -519,13 +539,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>37142</v>
+        <v>45087</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="2">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -533,31 +553,90 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>37174</v>
+        <v>45064</v>
       </c>
       <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2">
+        <v>230</v>
+      </c>
+      <c r="D6" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" s="2">
-        <v>50</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>37735</v>
+        <v>45010</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C7" s="2">
-        <v>90</v>
+        <v>18.75</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
       </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>44962</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>45119</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2">
+        <v>89.88</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>44954</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>45048</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2">
+        <v>320</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
